--- a/data/trans_bre/IP11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,17</t>
+          <t>-3,4; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,37; -3,31</t>
+          <t>-17,8; -3,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,26</t>
+          <t>-4,45; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,17</t>
+          <t>-5,04; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 540,26</t>
+          <t>-72,11; 486,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,36; -20,11</t>
+          <t>-90,0; -21,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 0,07</t>
+          <t>-5,19; -0,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,12</t>
+          <t>-3,7; 2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -0,88</t>
+          <t>-5,23; -0,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,25</t>
+          <t>-2,17; 1,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 1,98</t>
+          <t>-58,05; -0,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 29,6</t>
+          <t>-35,56; 31,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,72; -17,47</t>
+          <t>-67,98; -10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 64,6</t>
+          <t>-57,21; 80,88</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,85</t>
+          <t>-1,93; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 1,33</t>
+          <t>-8,53; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,61</t>
+          <t>-3,82; 1,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,27</t>
+          <t>-4,85; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 231,25</t>
+          <t>-36,08; 252,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 24,09</t>
+          <t>-67,66; 21,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 94,77</t>
+          <t>-75,66; 112,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,58; 169,5</t>
+          <t>-75,26; 144,4</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,63</t>
+          <t>-3,16; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,16</t>
+          <t>-4,99; -0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,45</t>
+          <t>-3,8; -0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,09</t>
+          <t>-2,07; 1,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 12,54</t>
+          <t>-41,45; 17,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -1,64</t>
+          <t>-45,24; -0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -9,06</t>
+          <t>-59,06; -6,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 47,28</t>
+          <t>-51,83; 45,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,11%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 6,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,44; -2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 6,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 3,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,57; 620,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,18; -23,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,86; 660,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>-34,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-69,95%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>-45,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>-16,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,0</t>
+          <t>-5,19; 0,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; -3,09</t>
+          <t>-3,61; 2,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,3</t>
+          <t>-5,3; -0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,42</t>
+          <t>-2,18; 1,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,11; 486,72</t>
+          <t>-57,09; 1,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,0; -21,31</t>
+          <t>-34,06; 28,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,99; -9,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 81,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-37,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-45,61%</t>
+          <t>-29,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>-21,99%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,07</t>
+          <t>-2,28; 5,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,26</t>
+          <t>-8,16; 1,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,7</t>
+          <t>-3,94; 1,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,34</t>
+          <t>-4,77; 2,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,05; -0,07</t>
+          <t>-44,23; 217,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 31,14</t>
+          <t>-68,51; 27,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,98; -10,31</t>
+          <t>-76,84; 93,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 80,88</t>
+          <t>-75,01; 157,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>-19,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,23%</t>
+          <t>-25,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,17%</t>
+          <t>-39,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,39%</t>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,63</t>
+          <t>-3,36; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,22</t>
+          <t>-5,28; -0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,79</t>
+          <t>-3,94; -0,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,99</t>
+          <t>-2,1; 1,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 252,02</t>
+          <t>-44,48; 14,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 21,02</t>
+          <t>-46,64; -2,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,66; 112,9</t>
+          <t>-60,09; -5,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,26; 144,4</t>
+          <t>-51,95; 48,03</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-19,48%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-25,55%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-39,23%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 0,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; -0,09</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; -0,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 1,05</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-41,45; 17,17</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-45,24; -0,98</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-59,06; -6,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-51,83; 45,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
